--- a/results/I2_N10_T30_C275_0_P2_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>976.1856520136131</v>
+        <v>104.4309884689769</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02399992942810059</v>
+        <v>0.0130000114440918</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.40565201361344</v>
+        <v>38.17098846897687</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.99785277366627</v>
+        <v>0.6217041096856285</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.99785277366627</v>
+        <v>0.6217041096856285</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>432.8699999999997</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.91</v>
+        <v>60.09</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,100 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -799,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -832,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -843,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -854,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -901,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -912,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -923,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -967,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1000,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1083,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.38807534940317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1091,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>22.71621059566448</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1107,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.76592070603971</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1115,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.54177106295363</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1123,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.34885527085025</v>
+        <v>27.06506101847739</v>
       </c>
     </row>
     <row r="9">
@@ -1131,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.988408590195316</v>
+        <v>20.60033324079215</v>
       </c>
     </row>
     <row r="10">
@@ -1139,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.45367071955468</v>
+        <v>22.31224998648502</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>24.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1155,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="13">
@@ -1163,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.72688709102852</v>
+        <v>27.87444125446785</v>
       </c>
     </row>
     <row r="14">
@@ -1171,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>26.71671453559703</v>
       </c>
     </row>
     <row r="15">
@@ -1179,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.01392562639436</v>
+        <v>29.7301313740215</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,127 +1137,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>97.1700000000008</v>
+        <v>109.9450000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1459,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.27000000000081</v>
+        <v>117.5900000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1470,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1150000000008</v>
+        <v>113.2700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1481,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>99.0400000000008</v>
+        <v>119.1550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1492,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>97.9800000000008</v>
+        <v>115.8050000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1503,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.77500000000072</v>
+        <v>151.3550000000009</v>
       </c>
     </row>
     <row r="13">
@@ -1514,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.77000000000072</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1525,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.03500000000074</v>
+        <v>157.125000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1536,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.04500000000073</v>
+        <v>153.080000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1547,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.66500000000073</v>
+        <v>160.235000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1558,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="18">
@@ -1569,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>30.90499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1580,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>27.59499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1591,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>31.97499999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1602,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>33.99499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1613,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>293.8149999999995</v>
+        <v>112.9799999999989</v>
       </c>
     </row>
     <row r="23">
@@ -1624,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>320.95</v>
+        <v>110.9600000000006</v>
       </c>
     </row>
     <row r="24">
@@ -1635,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>295.89</v>
+        <v>109.9149999999989</v>
       </c>
     </row>
     <row r="25">
@@ -1646,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>311.5</v>
+        <v>115.9300000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1657,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>297.1399999999995</v>
+        <v>114.809999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>283</v>
+        <v>69.88000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1679,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>292.9350000000002</v>
+        <v>76.32000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1690,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>291.7950000000002</v>
+        <v>72.41000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1701,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>291.2750000000003</v>
+        <v>72.64500000000022</v>
       </c>
     </row>
     <row r="31">
@@ -1712,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>288.1350000000002</v>
+        <v>72.89000000000021</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>258.7350000000008</v>
       </c>
     </row>
     <row r="33">
@@ -1734,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>269.2400000000008</v>
       </c>
     </row>
     <row r="34">
@@ -1745,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>250.9150000000008</v>
       </c>
     </row>
     <row r="35">
@@ -1756,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>261.9150000000008</v>
       </c>
     </row>
     <row r="36">
@@ -1767,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>255.0150000000008</v>
       </c>
     </row>
     <row r="37">
@@ -1778,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>164.3150000000007</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="38">
@@ -1789,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>169.1750000000008</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="39">
@@ -1800,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>166.7550000000007</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="40">
@@ -1811,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>168.3250000000007</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="41">
@@ -1822,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>168.9450000000007</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="42">
@@ -1833,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>221.185</v>
+        <v>180.9049999999983</v>
       </c>
     </row>
     <row r="43">
@@ -1844,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>240.895</v>
+        <v>190.12</v>
       </c>
     </row>
     <row r="44">
@@ -1855,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>213.5700000000005</v>
+        <v>169.7349999999983</v>
       </c>
     </row>
     <row r="45">
@@ -1866,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>227.545</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="46">
@@ -1877,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>216.325</v>
+        <v>173.7399999999984</v>
       </c>
     </row>
     <row r="47">
@@ -1888,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>153.2600000000006</v>
+        <v>266.3899999999988</v>
       </c>
     </row>
     <row r="48">
@@ -1899,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>161.7350000000006</v>
+        <v>278.0850000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1910,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>153.75</v>
+        <v>249.45</v>
       </c>
     </row>
     <row r="50">
@@ -1921,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>163.7750000000006</v>
+        <v>270.43</v>
       </c>
     </row>
     <row r="51">
@@ -1932,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>157.3950000000006</v>
+        <v>258.4699999999989</v>
       </c>
     </row>
     <row r="52">
@@ -1943,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>213.12</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1954,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>216.615</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1965,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>219.385</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1976,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>218.63</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1987,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>215.245</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1998,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>283</v>
+        <v>266.3899999999988</v>
       </c>
     </row>
     <row r="58">
@@ -2009,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>292.9350000000002</v>
+        <v>278.0850000000005</v>
       </c>
     </row>
     <row r="59">
@@ -2020,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>291.7950000000002</v>
+        <v>249.45</v>
       </c>
     </row>
     <row r="60">
@@ -2031,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>291.2750000000003</v>
+        <v>270.43</v>
       </c>
     </row>
     <row r="61">
@@ -2042,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>288.1350000000002</v>
+        <v>258.4699999999989</v>
       </c>
     </row>
     <row r="62">
@@ -2053,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>293.8149999999995</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2064,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>320.95</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="64">
@@ -2075,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>295.89</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2086,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>311.5</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="66">
@@ -2097,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>297.1399999999995</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="67">
@@ -2108,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>154.3</v>
+        <v>258.7350000000008</v>
       </c>
     </row>
     <row r="68">
@@ -2119,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>148.3449999999993</v>
+        <v>269.2400000000008</v>
       </c>
     </row>
     <row r="69">
@@ -2130,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>128.7049999999993</v>
+        <v>250.9150000000008</v>
       </c>
     </row>
     <row r="70">
@@ -2141,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>146.3249999999993</v>
+        <v>261.9150000000008</v>
       </c>
     </row>
     <row r="71">
@@ -2152,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>134.2149999999993</v>
+        <v>255.0150000000008</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2210,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.93500000000017</v>
+        <v>3.085</v>
       </c>
     </row>
     <row r="4">
@@ -2221,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16.79500000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2232,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.27500000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2243,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.13500000000022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2254,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.81499999999949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2265,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>45.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2276,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>20.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2287,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2298,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.13999999999955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2400,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2411,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2422,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2433,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2444,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2455,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2466,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2477,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>10.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2488,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2499,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2510,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13">
@@ -2521,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2532,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="15">
@@ -2543,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="16">
@@ -2554,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="17">
@@ -2730,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>15.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2741,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>14.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2752,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>11.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2763,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>20.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2774,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>10.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2895,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>9.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2906,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>11.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2917,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2928,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>10.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2939,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>6.615</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2980,111 +2780,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
